--- a/src/xlsx/spmk/usuarios-catalogo-spmk.xlsx
+++ b/src/xlsx/spmk/usuarios-catalogo-spmk.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C2ADAA0-4919-4695-94E2-29B1EFD53BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDC36FD-178E-4209-A5CC-A18899326E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">NOMBRE </t>
   </si>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>patricio.vasquez@ab-inbev.com</t>
+  </si>
+  <si>
+    <t>reposicion@ab-inbev.com</t>
   </si>
 </sst>
 </file>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B10" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,6 +557,11 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -567,6 +576,7 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{E1D782E5-0E9F-46F6-9C31-A4D67EA2012D}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{983D2F4C-EF88-45EF-AE70-35EECFA61D61}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{3016B910-4488-4271-9190-D6D835D14DDD}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{F2827B15-C50D-4D14-9D27-75C6CC0C1CEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
